--- a/natmiOut/OldD0/LR-pairs_lrc2p/Il34-Csf1r.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Il34-Csf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Csf1r</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.8920004967942</v>
+        <v>1.393664333333333</v>
       </c>
       <c r="H2">
-        <v>2.8920004967942</v>
+        <v>4.180993</v>
       </c>
       <c r="I2">
-        <v>0.09560614151508003</v>
+        <v>0.04358216200908328</v>
       </c>
       <c r="J2">
-        <v>0.09560614151508003</v>
+        <v>0.04358216200908328</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.50041929467891</v>
+        <v>22.07422366666666</v>
       </c>
       <c r="N2">
-        <v>4.50041929467891</v>
+        <v>66.22267099999999</v>
       </c>
       <c r="O2">
-        <v>0.5949503037885786</v>
+        <v>0.8730897844203874</v>
       </c>
       <c r="P2">
-        <v>0.5949503037885786</v>
+        <v>0.8730897844203874</v>
       </c>
       <c r="Q2">
-        <v>13.01521483599361</v>
+        <v>30.76405821025589</v>
       </c>
       <c r="R2">
-        <v>13.01521483599361</v>
+        <v>276.8765238923029</v>
       </c>
       <c r="S2">
-        <v>0.0568809029384507</v>
+        <v>0.03805114043308493</v>
       </c>
       <c r="T2">
-        <v>0.0568809029384507</v>
+        <v>0.03805114043308492</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.8920004967942</v>
+        <v>1.393664333333333</v>
       </c>
       <c r="H3">
-        <v>2.8920004967942</v>
+        <v>4.180993</v>
       </c>
       <c r="I3">
-        <v>0.09560614151508003</v>
+        <v>0.04358216200908328</v>
       </c>
       <c r="J3">
-        <v>0.09560614151508003</v>
+        <v>0.04358216200908328</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.35400322327336</v>
+        <v>1.456833333333333</v>
       </c>
       <c r="N3">
-        <v>1.35400322327336</v>
+        <v>4.3705</v>
       </c>
       <c r="O3">
-        <v>0.1789976836090946</v>
+        <v>0.05762133790721463</v>
       </c>
       <c r="P3">
-        <v>0.1789976836090946</v>
+        <v>0.05762133790721465</v>
       </c>
       <c r="Q3">
-        <v>3.915777994367506</v>
+        <v>2.030336656277778</v>
       </c>
       <c r="R3">
-        <v>3.915777994367506</v>
+        <v>18.2730299065</v>
       </c>
       <c r="S3">
-        <v>0.01711327787000262</v>
+        <v>0.00251126248385236</v>
       </c>
       <c r="T3">
-        <v>0.01711327787000262</v>
+        <v>0.00251126248385236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.8920004967942</v>
+        <v>1.393664333333333</v>
       </c>
       <c r="H4">
-        <v>2.8920004967942</v>
+        <v>4.180993</v>
       </c>
       <c r="I4">
-        <v>0.09560614151508003</v>
+        <v>0.04358216200908328</v>
       </c>
       <c r="J4">
-        <v>0.09560614151508003</v>
+        <v>0.04358216200908328</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.70993918758974</v>
+        <v>1.751822333333333</v>
       </c>
       <c r="N4">
-        <v>1.70993918758974</v>
+        <v>5.255467</v>
       </c>
       <c r="O4">
-        <v>0.2260520126023267</v>
+        <v>0.06928887767239802</v>
       </c>
       <c r="P4">
-        <v>0.2260520126023267</v>
+        <v>0.06928887767239804</v>
       </c>
       <c r="Q4">
-        <v>4.945144979997399</v>
+        <v>2.441452304303445</v>
       </c>
       <c r="R4">
-        <v>4.945144979997399</v>
+        <v>21.973070738731</v>
       </c>
       <c r="S4">
-        <v>0.0216119607066267</v>
+        <v>0.003019759092146004</v>
       </c>
       <c r="T4">
-        <v>0.0216119607066267</v>
+        <v>0.003019759092146004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.3571074680748</v>
+        <v>2.952820666666666</v>
       </c>
       <c r="H5">
-        <v>27.3571074680748</v>
+        <v>8.858461999999999</v>
       </c>
       <c r="I5">
-        <v>0.9043938584849199</v>
+        <v>0.092339529397755</v>
       </c>
       <c r="J5">
-        <v>0.9043938584849199</v>
+        <v>0.092339529397755</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.50041929467891</v>
+        <v>22.07422366666666</v>
       </c>
       <c r="N5">
-        <v>4.50041929467891</v>
+        <v>66.22267099999999</v>
       </c>
       <c r="O5">
-        <v>0.5949503037885786</v>
+        <v>0.8730897844203874</v>
       </c>
       <c r="P5">
-        <v>0.5949503037885786</v>
+        <v>0.8730897844203874</v>
       </c>
       <c r="Q5">
-        <v>123.1184542959283</v>
+        <v>65.18122384355577</v>
       </c>
       <c r="R5">
-        <v>123.1184542959283</v>
+        <v>586.6310145920019</v>
       </c>
       <c r="S5">
-        <v>0.5380694008501279</v>
+        <v>0.08062069981536595</v>
       </c>
       <c r="T5">
-        <v>0.5380694008501279</v>
+        <v>0.08062069981536595</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.3571074680748</v>
+        <v>2.952820666666666</v>
       </c>
       <c r="H6">
-        <v>27.3571074680748</v>
+        <v>8.858461999999999</v>
       </c>
       <c r="I6">
-        <v>0.9043938584849199</v>
+        <v>0.092339529397755</v>
       </c>
       <c r="J6">
-        <v>0.9043938584849199</v>
+        <v>0.092339529397755</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.35400322327336</v>
+        <v>1.456833333333333</v>
       </c>
       <c r="N6">
-        <v>1.35400322327336</v>
+        <v>4.3705</v>
       </c>
       <c r="O6">
-        <v>0.1789976836090946</v>
+        <v>0.05762133790721463</v>
       </c>
       <c r="P6">
-        <v>0.1789976836090946</v>
+        <v>0.05762133790721465</v>
       </c>
       <c r="Q6">
-        <v>37.04161169120899</v>
+        <v>4.301767574555555</v>
       </c>
       <c r="R6">
-        <v>37.04161169120899</v>
+        <v>38.715908171</v>
       </c>
       <c r="S6">
-        <v>0.161884405739092</v>
+        <v>0.00532072722562122</v>
       </c>
       <c r="T6">
-        <v>0.161884405739092</v>
+        <v>0.005320727225621221</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.952820666666666</v>
+      </c>
+      <c r="H7">
+        <v>8.858461999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.092339529397755</v>
+      </c>
+      <c r="J7">
+        <v>0.092339529397755</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.751822333333333</v>
+      </c>
+      <c r="N7">
+        <v>5.255467</v>
+      </c>
+      <c r="O7">
+        <v>0.06928887767239802</v>
+      </c>
+      <c r="P7">
+        <v>0.06928887767239804</v>
+      </c>
+      <c r="Q7">
+        <v>5.172817190194889</v>
+      </c>
+      <c r="R7">
+        <v>46.555354711754</v>
+      </c>
+      <c r="S7">
+        <v>0.006398102356767847</v>
+      </c>
+      <c r="T7">
+        <v>0.006398102356767849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>27.63137633333334</v>
+      </c>
+      <c r="H8">
+        <v>82.89412900000001</v>
+      </c>
+      <c r="I8">
+        <v>0.8640783085931617</v>
+      </c>
+      <c r="J8">
+        <v>0.8640783085931617</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>22.07422366666666</v>
+      </c>
+      <c r="N8">
+        <v>66.22267099999999</v>
+      </c>
+      <c r="O8">
+        <v>0.8730897844203874</v>
+      </c>
+      <c r="P8">
+        <v>0.8730897844203874</v>
+      </c>
+      <c r="Q8">
+        <v>609.9411813998399</v>
+      </c>
+      <c r="R8">
+        <v>5489.470632598559</v>
+      </c>
+      <c r="S8">
+        <v>0.7544179441719365</v>
+      </c>
+      <c r="T8">
+        <v>0.7544179441719365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>27.3571074680748</v>
-      </c>
-      <c r="H7">
-        <v>27.3571074680748</v>
-      </c>
-      <c r="I7">
-        <v>0.9043938584849199</v>
-      </c>
-      <c r="J7">
-        <v>0.9043938584849199</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.70993918758974</v>
-      </c>
-      <c r="N7">
-        <v>1.70993918758974</v>
-      </c>
-      <c r="O7">
-        <v>0.2260520126023267</v>
-      </c>
-      <c r="P7">
-        <v>0.2260520126023267</v>
-      </c>
-      <c r="Q7">
-        <v>46.77899011876504</v>
-      </c>
-      <c r="R7">
-        <v>46.77899011876504</v>
-      </c>
-      <c r="S7">
-        <v>0.2044400518957</v>
-      </c>
-      <c r="T7">
-        <v>0.2044400518957</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>27.63137633333334</v>
+      </c>
+      <c r="H9">
+        <v>82.89412900000001</v>
+      </c>
+      <c r="I9">
+        <v>0.8640783085931617</v>
+      </c>
+      <c r="J9">
+        <v>0.8640783085931617</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.456833333333333</v>
+      </c>
+      <c r="N9">
+        <v>4.3705</v>
+      </c>
+      <c r="O9">
+        <v>0.05762133790721463</v>
+      </c>
+      <c r="P9">
+        <v>0.05762133790721465</v>
+      </c>
+      <c r="Q9">
+        <v>40.25431008827778</v>
+      </c>
+      <c r="R9">
+        <v>362.2887907945</v>
+      </c>
+      <c r="S9">
+        <v>0.04978934819774105</v>
+      </c>
+      <c r="T9">
+        <v>0.04978934819774106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>27.63137633333334</v>
+      </c>
+      <c r="H10">
+        <v>82.89412900000001</v>
+      </c>
+      <c r="I10">
+        <v>0.8640783085931617</v>
+      </c>
+      <c r="J10">
+        <v>0.8640783085931617</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.751822333333333</v>
+      </c>
+      <c r="N10">
+        <v>5.255467</v>
+      </c>
+      <c r="O10">
+        <v>0.06928887767239802</v>
+      </c>
+      <c r="P10">
+        <v>0.06928887767239804</v>
+      </c>
+      <c r="Q10">
+        <v>48.40526216147145</v>
+      </c>
+      <c r="R10">
+        <v>435.647359453243</v>
+      </c>
+      <c r="S10">
+        <v>0.05987101622348417</v>
+      </c>
+      <c r="T10">
+        <v>0.05987101622348418</v>
       </c>
     </row>
   </sheetData>
